--- a/pythonProject/evaluation/classla/literature.xlsx
+++ b/pythonProject/evaluation/classla/literature.xlsx
@@ -21,24 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="110">
   <si>
     <t>Tag</t>
   </si>
   <si>
-    <t>Expected count</t>
-  </si>
-  <si>
-    <t>Result count</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>Precision</t>
   </si>
   <si>
-    <t>*</t>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 score</t>
   </si>
   <si>
     <t>B-LOC</t>
@@ -59,274 +53,280 @@
     <t>I-PER</t>
   </si>
   <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>micro avg</t>
+  </si>
+  <si>
+    <t>Expected token</t>
+  </si>
+  <si>
+    <t>Result token</t>
+  </si>
+  <si>
+    <t>Expected tag</t>
+  </si>
+  <si>
+    <t>Result tag</t>
+  </si>
+  <si>
+    <t>Oblonskih</t>
+  </si>
+  <si>
+    <t>Žena</t>
+  </si>
+  <si>
+    <t>Francuskinjom</t>
+  </si>
+  <si>
+    <t>Deca</t>
+  </si>
+  <si>
+    <t>Engleskinja</t>
+  </si>
+  <si>
+    <t>Trećeg</t>
+  </si>
+  <si>
+    <t>Aha</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>Alabin</t>
+  </si>
+  <si>
+    <t>Darmštat</t>
+  </si>
+  <si>
+    <t>Jeste</t>
+  </si>
+  <si>
+    <t>Oči</t>
+  </si>
+  <si>
+    <t>Jest</t>
+  </si>
+  <si>
+    <t>Bilo</t>
+  </si>
+  <si>
+    <t>Ah</t>
+  </si>
+  <si>
+    <t>Najneprijatniji</t>
+  </si>
+  <si>
+    <t>Doli</t>
+  </si>
+  <si>
+    <t>Šta</t>
+  </si>
+  <si>
+    <t>Je</t>
+  </si>
+  <si>
+    <t>Mesto</t>
+  </si>
+  <si>
+    <t>Otada</t>
+  </si>
+  <si>
+    <t>Svemu</t>
+  </si>
+  <si>
+    <t>Kajao</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Taj</t>
+  </si>
+  <si>
+    <t>Odmah</t>
+  </si>
+  <si>
+    <t>za</t>
+  </si>
+  <si>
+    <t>Matvejem</t>
+  </si>
+  <si>
+    <t>Kočijaš</t>
+  </si>
+  <si>
+    <t>Matveja</t>
+  </si>
+  <si>
+    <t>Pogled</t>
+  </si>
+  <si>
+    <t>Kazao</t>
+  </si>
+  <si>
+    <t>Hvala</t>
+  </si>
+  <si>
+    <t>bogu</t>
+  </si>
+  <si>
+    <t>Sami</t>
+  </si>
+  <si>
+    <t>Matvej</t>
+  </si>
+  <si>
+    <t>Javi</t>
+  </si>
+  <si>
+    <t>Darji</t>
+  </si>
+  <si>
+    <t>Evo</t>
+  </si>
+  <si>
+    <t>Razumem</t>
+  </si>
+  <si>
+    <t>Neka</t>
+  </si>
+  <si>
+    <t>Stepana</t>
+  </si>
+  <si>
+    <t>Arkadijeviča</t>
+  </si>
+  <si>
+    <t>Stepan</t>
+  </si>
+  <si>
+    <t>Arkadijevič</t>
+  </si>
+  <si>
+    <t>Dobroćudan</t>
+  </si>
+  <si>
+    <t>Udesiće</t>
+  </si>
+  <si>
+    <t>Dabogme</t>
+  </si>
+  <si>
+    <t>Misliš</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Pokorite</t>
+  </si>
+  <si>
+    <t>Bog</t>
+  </si>
+  <si>
+    <t>Stepane</t>
+  </si>
+  <si>
+    <t>Daj</t>
+  </si>
+  <si>
+    <t>Jedno</t>
+  </si>
+  <si>
+    <t>Najneprijatnije</t>
+  </si>
+  <si>
+    <t>Kad</t>
+  </si>
+  <si>
+    <t>Kako</t>
+  </si>
+  <si>
+    <t>Liberalna</t>
+  </si>
+  <si>
+    <t>partija</t>
+  </si>
+  <si>
+    <t>Prvo</t>
+  </si>
+  <si>
+    <t>vlada</t>
+  </si>
+  <si>
+    <t>Bentam</t>
+  </si>
+  <si>
+    <t>Mil</t>
+  </si>
+  <si>
+    <t>Pročitao</t>
+  </si>
+  <si>
+    <t>Bajst</t>
+  </si>
+  <si>
+    <t>Dva</t>
+  </si>
+  <si>
+    <t>Griše</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Sve</t>
+  </si>
+  <si>
+    <t>Devojčica</t>
+  </si>
+  <si>
+    <t>Zdravo</t>
+  </si>
+  <si>
+    <t>Osećao</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Ustala</t>
+  </si>
+  <si>
+    <t>Za</t>
+  </si>
+  <si>
+    <t>Grišu</t>
+  </si>
+  <si>
+    <t>Kola</t>
+  </si>
+  <si>
+    <t>Hajde</t>
+  </si>
+  <si>
+    <t>mršteći</t>
+  </si>
+  <si>
+    <t>Moliteljka</t>
+  </si>
+  <si>
+    <t>Isprsi</t>
+  </si>
+  <si>
+    <t>Osećala</t>
+  </si>
+  <si>
     <t>O</t>
-  </si>
-  <si>
-    <t>Expected token</t>
-  </si>
-  <si>
-    <t>Result token</t>
-  </si>
-  <si>
-    <t>Expected tag</t>
-  </si>
-  <si>
-    <t>Result tag</t>
-  </si>
-  <si>
-    <t>Oblonskih</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Francuskinjom</t>
-  </si>
-  <si>
-    <t>Deca</t>
-  </si>
-  <si>
-    <t>Engleskinja</t>
-  </si>
-  <si>
-    <t>Trećeg</t>
-  </si>
-  <si>
-    <t>Aha</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>Alabin</t>
-  </si>
-  <si>
-    <t>Darmštat</t>
-  </si>
-  <si>
-    <t>Jeste</t>
-  </si>
-  <si>
-    <t>Oči</t>
-  </si>
-  <si>
-    <t>Jest</t>
-  </si>
-  <si>
-    <t>Bilo</t>
-  </si>
-  <si>
-    <t>Ah</t>
-  </si>
-  <si>
-    <t>Najneprijatniji</t>
-  </si>
-  <si>
-    <t>Doli</t>
-  </si>
-  <si>
-    <t>Šta</t>
-  </si>
-  <si>
-    <t>Je</t>
-  </si>
-  <si>
-    <t>Mesto</t>
-  </si>
-  <si>
-    <t>Otada</t>
-  </si>
-  <si>
-    <t>Svemu</t>
-  </si>
-  <si>
-    <t>Kajao</t>
-  </si>
-  <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Roland</t>
-  </si>
-  <si>
-    <t>Taj</t>
-  </si>
-  <si>
-    <t>Odmah</t>
-  </si>
-  <si>
-    <t>za</t>
-  </si>
-  <si>
-    <t>Matvejem</t>
-  </si>
-  <si>
-    <t>Kočijaš</t>
-  </si>
-  <si>
-    <t>Matveja</t>
-  </si>
-  <si>
-    <t>Pogled</t>
-  </si>
-  <si>
-    <t>Kazao</t>
-  </si>
-  <si>
-    <t>Hvala</t>
-  </si>
-  <si>
-    <t>bogu</t>
-  </si>
-  <si>
-    <t>Sami</t>
-  </si>
-  <si>
-    <t>Matvej</t>
-  </si>
-  <si>
-    <t>Javi</t>
-  </si>
-  <si>
-    <t>Darji</t>
-  </si>
-  <si>
-    <t>Evo</t>
-  </si>
-  <si>
-    <t>Razumem</t>
-  </si>
-  <si>
-    <t>Neka</t>
-  </si>
-  <si>
-    <t>Stepana</t>
-  </si>
-  <si>
-    <t>Arkadijeviča</t>
-  </si>
-  <si>
-    <t>Stepan</t>
-  </si>
-  <si>
-    <t>Arkadijevič</t>
-  </si>
-  <si>
-    <t>Dobroćudan</t>
-  </si>
-  <si>
-    <t>Udesiće</t>
-  </si>
-  <si>
-    <t>Dabogme</t>
-  </si>
-  <si>
-    <t>Misliš</t>
-  </si>
-  <si>
-    <t>Ko</t>
-  </si>
-  <si>
-    <t>Ja</t>
-  </si>
-  <si>
-    <t>Pokorite</t>
-  </si>
-  <si>
-    <t>Bog</t>
-  </si>
-  <si>
-    <t>Stepane</t>
-  </si>
-  <si>
-    <t>Daj</t>
-  </si>
-  <si>
-    <t>Jedno</t>
-  </si>
-  <si>
-    <t>Najneprijatnije</t>
-  </si>
-  <si>
-    <t>Kad</t>
-  </si>
-  <si>
-    <t>Kako</t>
-  </si>
-  <si>
-    <t>Liberalna</t>
-  </si>
-  <si>
-    <t>partija</t>
-  </si>
-  <si>
-    <t>Prvo</t>
-  </si>
-  <si>
-    <t>vlada</t>
-  </si>
-  <si>
-    <t>Bentam</t>
-  </si>
-  <si>
-    <t>Mil</t>
-  </si>
-  <si>
-    <t>Pročitao</t>
-  </si>
-  <si>
-    <t>Bajst</t>
-  </si>
-  <si>
-    <t>Dva</t>
-  </si>
-  <si>
-    <t>Griše</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Sve</t>
-  </si>
-  <si>
-    <t>Devojčica</t>
-  </si>
-  <si>
-    <t>Zdravo</t>
-  </si>
-  <si>
-    <t>Osećao</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>Ustala</t>
-  </si>
-  <si>
-    <t>Za</t>
-  </si>
-  <si>
-    <t>Grišu</t>
-  </si>
-  <si>
-    <t>Kola</t>
-  </si>
-  <si>
-    <t>Hajde</t>
-  </si>
-  <si>
-    <t>mršteći</t>
-  </si>
-  <si>
-    <t>Moliteljka</t>
-  </si>
-  <si>
-    <t>Isprsi</t>
-  </si>
-  <si>
-    <t>Osećala</t>
   </si>
   <si>
     <t>LOC</t>
@@ -708,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,144 +727,117 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0.86</v>
+      </c>
+      <c r="C2">
+        <v>0.21</v>
+      </c>
+      <c r="D2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>4093</v>
-      </c>
-      <c r="C2">
-        <v>4093</v>
-      </c>
-      <c r="D2">
-        <v>0.9728805277302712</v>
-      </c>
-      <c r="E2">
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.82</v>
+      </c>
+      <c r="C4">
+        <v>0.53</v>
+      </c>
+      <c r="D4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>28</v>
-      </c>
-      <c r="D3">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="E3">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="E4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>122</v>
-      </c>
-      <c r="D5">
-        <v>0.5327868852459017</v>
-      </c>
-      <c r="E5">
-        <v>0.8227848101265823</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.98</v>
+      </c>
+      <c r="C7">
+        <v>0.86</v>
+      </c>
+      <c r="D7">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0.65</v>
+      </c>
+      <c r="C8">
+        <v>0.28</v>
+      </c>
+      <c r="D8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="E8">
-        <v>0.9777777777777777</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9">
-        <v>3955</v>
+        <v>0.53</v>
       </c>
       <c r="C9">
-        <v>3873</v>
+        <v>0.84</v>
       </c>
       <c r="D9">
-        <v>0.9981926155435064</v>
-      </c>
-      <c r="E9">
-        <v>0.9774968394437421</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -882,1570 +855,1570 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
         <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D111" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2455,13 +2428,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2474,93 +2447,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>4093</v>
+        <v>0.86</v>
       </c>
       <c r="C2">
-        <v>4093</v>
+        <v>0.21</v>
       </c>
       <c r="D2">
-        <v>0.9736134864402639</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>0.14</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>0.06</v>
       </c>
       <c r="D3">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="E3">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>3955</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>3873</v>
+        <v>0.65</v>
       </c>
       <c r="D4">
-        <v>0.9981926155435064</v>
-      </c>
-      <c r="E4">
-        <v>0.9774968394437421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0.63</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>0.3</v>
       </c>
       <c r="D5">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="E5">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>0.54</v>
       </c>
       <c r="C6">
-        <v>173</v>
+        <v>0.86</v>
       </c>
       <c r="D6">
-        <v>0.6473988439306358</v>
-      </c>
-      <c r="E6">
-        <v>0.9032258064516129</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -2578,27 +2533,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>102</v>
@@ -2606,13 +2561,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -2620,13 +2575,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>102</v>
@@ -2634,13 +2589,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>102</v>
@@ -2648,13 +2603,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
@@ -2662,13 +2617,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
         <v>104</v>
@@ -2676,13 +2631,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>102</v>
@@ -2690,13 +2645,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
@@ -2704,13 +2659,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
         <v>104</v>
@@ -2718,10 +2673,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>102</v>
@@ -2732,13 +2687,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>102</v>
@@ -2746,13 +2701,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
         <v>104</v>
@@ -2760,13 +2715,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
@@ -2774,13 +2729,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -2788,13 +2743,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>103</v>
@@ -2802,13 +2757,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
         <v>103</v>
@@ -2816,13 +2771,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
@@ -2830,13 +2785,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -2844,13 +2799,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
         <v>104</v>
@@ -2858,13 +2813,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
         <v>104</v>
@@ -2872,13 +2827,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
@@ -2886,13 +2841,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
@@ -2900,13 +2855,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
         <v>102</v>
@@ -2914,13 +2869,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>104</v>
@@ -2928,13 +2883,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
         <v>102</v>
@@ -2942,13 +2897,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
         <v>104</v>
@@ -2956,13 +2911,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
         <v>104</v>
@@ -2970,10 +2925,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
@@ -2984,13 +2939,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>103</v>
@@ -2998,13 +2953,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>104</v>
@@ -3012,13 +2967,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>103</v>
@@ -3026,13 +2981,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
         <v>103</v>
@@ -3040,10 +2995,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
@@ -3054,13 +3009,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
         <v>102</v>
@@ -3068,10 +3023,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>104</v>
@@ -3082,13 +3037,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
         <v>102</v>
@@ -3096,13 +3051,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
@@ -3110,13 +3065,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
         <v>104</v>
@@ -3124,13 +3079,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D40" t="s">
         <v>104</v>
@@ -3138,13 +3093,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>104</v>
@@ -3152,10 +3107,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>104</v>
@@ -3166,13 +3121,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>104</v>
@@ -3180,13 +3135,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
         <v>104</v>
@@ -3194,13 +3149,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D45" t="s">
         <v>103</v>
@@ -3208,13 +3163,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D46" t="s">
         <v>104</v>
@@ -3222,13 +3177,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>104</v>
@@ -3236,13 +3191,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>104</v>
@@ -3250,13 +3205,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
         <v>104</v>
@@ -3264,10 +3219,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>104</v>
@@ -3278,10 +3233,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>104</v>
@@ -3292,13 +3247,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>104</v>
@@ -3306,13 +3261,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
         <v>104</v>
@@ -3320,13 +3275,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
         <v>104</v>
@@ -3334,13 +3289,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
         <v>103</v>
@@ -3348,13 +3303,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
         <v>103</v>
@@ -3362,13 +3317,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D57" t="s">
         <v>104</v>
@@ -3376,13 +3331,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
         <v>104</v>
@@ -3390,13 +3345,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
         <v>104</v>
@@ -3404,13 +3359,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D60" t="s">
         <v>104</v>
@@ -3418,13 +3373,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D61" t="s">
         <v>104</v>
@@ -3432,13 +3387,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D62" t="s">
         <v>102</v>
@@ -3446,13 +3401,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D63" t="s">
         <v>103</v>
@@ -3460,13 +3415,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
         <v>104</v>
@@ -3474,13 +3429,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
         <v>104</v>
@@ -3488,10 +3443,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
         <v>104</v>
@@ -3502,13 +3457,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D67" t="s">
         <v>104</v>
@@ -3516,13 +3471,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D68" t="s">
         <v>104</v>
@@ -3530,13 +3485,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D69" t="s">
         <v>104</v>
@@ -3544,13 +3499,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
         <v>104</v>
@@ -3558,13 +3513,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
         <v>104</v>
@@ -3572,83 +3527,83 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>103</v>
       </c>
       <c r="D72" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
         <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>103</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>103</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
         <v>104</v>
@@ -3656,24 +3611,24 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>103</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>104</v>
@@ -3684,10 +3639,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>104</v>
@@ -3698,13 +3653,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
         <v>104</v>
@@ -3712,13 +3667,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
         <v>104</v>
@@ -3726,10 +3681,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>104</v>
@@ -3740,13 +3695,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
         <v>104</v>
@@ -3754,13 +3709,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D85" t="s">
         <v>102</v>
@@ -3768,27 +3723,27 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
         <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D87" t="s">
         <v>102</v>
@@ -3796,13 +3751,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
         <v>103</v>
@@ -3810,13 +3765,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
         <v>104</v>
@@ -3824,13 +3779,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D90" t="s">
         <v>104</v>
@@ -3838,13 +3793,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
         <v>104</v>
@@ -3852,13 +3807,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
         <v>104</v>
@@ -3866,13 +3821,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
         <v>104</v>
@@ -3880,13 +3835,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
         <v>104</v>
@@ -3894,13 +3849,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
         <v>104</v>
@@ -3908,13 +3863,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
         <v>104</v>
@@ -3922,13 +3877,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
         <v>104</v>
@@ -3936,13 +3891,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
         <v>103</v>
@@ -3950,10 +3905,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
         <v>104</v>
@@ -3964,13 +3919,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
         <v>103</v>
@@ -3978,13 +3933,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D101" t="s">
         <v>102</v>
@@ -3992,13 +3947,13 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D102" t="s">
         <v>104</v>
@@ -4006,13 +3961,13 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
         <v>104</v>
@@ -4020,13 +3975,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
         <v>104</v>
@@ -4034,13 +3989,13 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
         <v>104</v>
@@ -4048,13 +4003,13 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
         <v>103</v>
@@ -4062,13 +4017,13 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
         <v>104</v>
@@ -4076,13 +4031,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B108" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
         <v>104</v>
@@ -4090,13 +4045,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
         <v>104</v>
@@ -4109,13 +4064,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4128,81 +4083,66 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>0.86</v>
+      </c>
+      <c r="C2">
+        <v>0.86</v>
+      </c>
+      <c r="D2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>4093</v>
-      </c>
-      <c r="C2">
-        <v>4093</v>
-      </c>
-      <c r="D2">
-        <v>0.9904715367700953</v>
-      </c>
-      <c r="E2">
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.84</v>
+      </c>
+      <c r="D4">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="E3">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>76</v>
-      </c>
-      <c r="D5">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="E5">
-        <v>0.810126582278481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4213,59 +4153,47 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.89</v>
+      </c>
+      <c r="C7">
+        <v>0.91</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0.59</v>
+      </c>
+      <c r="C8">
+        <v>0.77</v>
+      </c>
+      <c r="D8">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>44</v>
-      </c>
-      <c r="D8">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="E8">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
       <c r="B9">
-        <v>3955</v>
+        <v>0.86</v>
       </c>
       <c r="C9">
-        <v>3965</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.994703656998739</v>
-      </c>
-      <c r="E9">
-        <v>0.9972187104930468</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -4283,58 +4211,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4345,10 +4273,10 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4359,10 +4287,10 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4373,80 +4301,80 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4457,38 +4385,38 @@
         <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4499,24 +4427,24 @@
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4527,80 +4455,80 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4611,220 +4539,220 @@
         <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4835,10 +4763,10 @@
         <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4848,13 +4776,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4867,93 +4795,75 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <v>4093</v>
+        <v>0.86</v>
       </c>
       <c r="C2">
-        <v>4093</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>0.9914488150500855</v>
-      </c>
-      <c r="E2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
       <c r="C3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.75</v>
-      </c>
-      <c r="E3">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <v>3955</v>
+        <v>0.87</v>
       </c>
       <c r="C4">
-        <v>3965</v>
+        <v>0.9</v>
       </c>
       <c r="D4">
-        <v>0.994703656998739</v>
-      </c>
-      <c r="E4">
-        <v>0.9972187104930468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>0.58</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>124</v>
+        <v>0.89</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>0.83</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
-      </c>
-      <c r="E6">
-        <v>0.8709677419354839</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -4971,27 +4881,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
         <v>104</v>
@@ -4999,13 +4909,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>104</v>
@@ -5013,13 +4923,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>104</v>
@@ -5033,7 +4943,7 @@
         <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
         <v>104</v>
@@ -5041,10 +4951,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
@@ -5055,41 +4965,41 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
@@ -5097,16 +5007,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5120,35 +5030,35 @@
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5162,32 +5072,32 @@
         <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
         <v>104</v>
@@ -5195,10 +5105,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>104</v>
@@ -5209,10 +5119,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>104</v>
@@ -5223,13 +5133,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -5246,18 +5156,18 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
         <v>104</v>
@@ -5265,13 +5175,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
@@ -5279,13 +5189,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
@@ -5293,153 +5203,153 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>103</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
         <v>103</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
         <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
         <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D34" t="s">
         <v>104</v>
@@ -5447,16 +5357,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -5470,7 +5380,7 @@
         <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/pythonProject/evaluation/classla/literature.xlsx
+++ b/pythonProject/evaluation/classla/literature.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="123">
   <si>
     <t>Tag</t>
   </si>
@@ -324,6 +324,45 @@
   </si>
   <si>
     <t>Osećala</t>
+  </si>
+  <si>
+    <t>Jednako</t>
+  </si>
+  <si>
+    <t>Brzim</t>
+  </si>
+  <si>
+    <t>pogledom</t>
+  </si>
+  <si>
+    <t>Bože</t>
+  </si>
+  <si>
+    <t>ime</t>
+  </si>
+  <si>
+    <t>božje</t>
+  </si>
+  <si>
+    <t>Seti</t>
+  </si>
+  <si>
+    <t>Lice</t>
+  </si>
+  <si>
+    <t>Kriv</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Recite</t>
+  </si>
+  <si>
+    <t>Zar</t>
+  </si>
+  <si>
+    <t>Vaše</t>
   </si>
   <si>
     <t>O</t>
@@ -739,7 +778,7 @@
         <v>0.21</v>
       </c>
       <c r="D2">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -750,10 +789,10 @@
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -761,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
         <v>0.53</v>
@@ -806,10 +845,10 @@
         <v>0.98</v>
       </c>
       <c r="C7">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="D7">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -820,10 +859,10 @@
         <v>0.65</v>
       </c>
       <c r="C8">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="D8">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -831,13 +870,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="C9">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="D9">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -847,7 +886,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -889,7 +928,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -903,7 +942,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -917,7 +956,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -931,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -945,7 +984,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -959,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -973,7 +1012,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -987,7 +1026,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1029,7 +1068,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1043,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1057,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1071,7 +1110,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1085,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1099,7 +1138,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1113,7 +1152,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1127,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1141,7 +1180,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1155,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1169,7 +1208,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1183,7 +1222,7 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -1197,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1211,7 +1250,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -1225,7 +1264,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1239,7 +1278,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1253,7 +1292,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1281,7 +1320,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1295,7 +1334,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -1309,7 +1348,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1323,7 +1362,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1351,7 +1390,7 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1379,7 +1418,7 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1393,7 +1432,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1407,7 +1446,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1421,7 +1460,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1435,7 +1474,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1463,7 +1502,7 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -1477,7 +1516,7 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1505,7 +1544,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1519,7 +1558,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1533,7 +1572,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -1547,7 +1586,7 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1561,7 +1600,7 @@
         <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -1603,7 +1642,7 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -1631,7 +1670,7 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1645,7 +1684,7 @@
         <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -1659,7 +1698,7 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1673,7 +1712,7 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1687,7 +1726,7 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1701,7 +1740,7 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -1715,7 +1754,7 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -1729,7 +1768,7 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -1743,7 +1782,7 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1757,7 +1796,7 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
         <v>4</v>
@@ -1771,7 +1810,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1785,7 +1824,7 @@
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -1799,7 +1838,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -1827,7 +1866,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -1841,7 +1880,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
         <v>6</v>
@@ -1855,7 +1894,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
         <v>6</v>
@@ -1869,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
         <v>6</v>
@@ -1883,7 +1922,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
         <v>6</v>
@@ -1900,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1914,7 +1953,7 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1928,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1942,7 +1981,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1956,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1967,7 +2006,7 @@
         <v>78</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -1984,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2023,7 +2062,7 @@
         <v>39</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
@@ -2037,7 +2076,7 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
@@ -2065,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -2079,7 +2118,7 @@
         <v>84</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
         <v>4</v>
@@ -2096,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2107,7 +2146,7 @@
         <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
         <v>4</v>
@@ -2121,7 +2160,7 @@
         <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
         <v>5</v>
@@ -2135,7 +2174,7 @@
         <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2149,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -2163,7 +2202,7 @@
         <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2177,7 +2216,7 @@
         <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
@@ -2191,7 +2230,7 @@
         <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
@@ -2205,7 +2244,7 @@
         <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2219,7 +2258,7 @@
         <v>92</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
@@ -2233,7 +2272,7 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
@@ -2247,7 +2286,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
@@ -2261,7 +2300,7 @@
         <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
@@ -2289,7 +2328,7 @@
         <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
@@ -2303,7 +2342,7 @@
         <v>95</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
         <v>4</v>
@@ -2317,7 +2356,7 @@
         <v>96</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
@@ -2331,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2345,7 +2384,7 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
@@ -2359,7 +2398,7 @@
         <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -2373,7 +2412,7 @@
         <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
         <v>5</v>
@@ -2387,7 +2426,7 @@
         <v>99</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
@@ -2401,7 +2440,7 @@
         <v>74</v>
       </c>
       <c r="C111" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2415,10 +2454,304 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
         <v>101</v>
       </c>
-      <c r="D112" t="s">
-        <v>6</v>
+      <c r="B113" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>104</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>93</v>
+      </c>
+      <c r="B121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>106</v>
+      </c>
+      <c r="B123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" t="s">
+        <v>114</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>107</v>
+      </c>
+      <c r="B124" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" t="s">
+        <v>108</v>
+      </c>
+      <c r="C125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>67</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131" t="s">
+        <v>112</v>
+      </c>
+      <c r="C131" t="s">
+        <v>114</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>113</v>
+      </c>
+      <c r="B133" t="s">
+        <v>113</v>
+      </c>
+      <c r="C133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2450,44 +2783,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.86</v>
       </c>
       <c r="C2">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="D2">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0.14</v>
       </c>
       <c r="C3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C4">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2495,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="C5">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="D5">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2509,13 +2842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="C6">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="D6">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2858,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2553,10 +2886,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2567,10 +2900,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2581,10 +2914,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2595,10 +2928,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2609,10 +2942,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2623,10 +2956,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2637,10 +2970,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2651,10 +2984,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2665,10 +2998,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2679,10 +3012,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2693,10 +3026,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2707,10 +3040,10 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2721,10 +3054,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2735,10 +3068,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2749,10 +3082,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2763,10 +3096,10 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2777,10 +3110,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2791,10 +3124,10 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2805,10 +3138,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2819,10 +3152,10 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2833,10 +3166,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2847,10 +3180,10 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2861,10 +3194,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2875,10 +3208,10 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2889,10 +3222,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2903,10 +3236,10 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2917,10 +3250,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2931,10 +3264,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2945,10 +3278,10 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2959,10 +3292,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2973,10 +3306,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2987,10 +3320,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3001,10 +3334,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3015,10 +3348,10 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3029,10 +3362,10 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3043,10 +3376,10 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3057,10 +3390,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3071,10 +3404,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3085,10 +3418,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3099,10 +3432,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3113,10 +3446,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3127,10 +3460,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3141,10 +3474,10 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3155,10 +3488,10 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3169,10 +3502,10 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3183,10 +3516,10 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3197,10 +3530,10 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3211,10 +3544,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3225,10 +3558,10 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3239,10 +3572,10 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3253,10 +3586,10 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3267,10 +3600,10 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3281,10 +3614,10 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3295,10 +3628,10 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3309,10 +3642,10 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3323,10 +3656,10 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3337,10 +3670,10 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3351,10 +3684,10 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3365,10 +3698,10 @@
         <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3379,10 +3712,10 @@
         <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3393,10 +3726,10 @@
         <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3407,10 +3740,10 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3421,10 +3754,10 @@
         <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3435,10 +3768,10 @@
         <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3449,10 +3782,10 @@
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3463,10 +3796,10 @@
         <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3477,10 +3810,10 @@
         <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3491,10 +3824,10 @@
         <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3505,10 +3838,10 @@
         <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3519,10 +3852,10 @@
         <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3533,10 +3866,10 @@
         <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3547,10 +3880,10 @@
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3561,10 +3894,10 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3575,10 +3908,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3589,10 +3922,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3603,10 +3936,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3617,10 +3950,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3631,10 +3964,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3645,10 +3978,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3659,10 +3992,10 @@
         <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D81" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3673,10 +4006,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3687,10 +4020,10 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3701,10 +4034,10 @@
         <v>41</v>
       </c>
       <c r="C84" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3715,10 +4048,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3729,10 +4062,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3743,10 +4076,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3757,10 +4090,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3771,10 +4104,10 @@
         <v>61</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3785,10 +4118,10 @@
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3799,10 +4132,10 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3813,10 +4146,10 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3827,10 +4160,10 @@
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3841,10 +4174,10 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3855,10 +4188,10 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3869,10 +4202,10 @@
         <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3883,10 +4216,10 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3897,10 +4230,10 @@
         <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3911,10 +4244,10 @@
         <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3925,10 +4258,10 @@
         <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3939,10 +4272,10 @@
         <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3953,10 +4286,10 @@
         <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3967,10 +4300,10 @@
         <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3981,10 +4314,10 @@
         <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3995,10 +4328,10 @@
         <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4009,10 +4342,10 @@
         <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D106" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4023,10 +4356,10 @@
         <v>99</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4037,10 +4370,10 @@
         <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4051,10 +4384,304 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
+        <v>114</v>
+      </c>
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
         <v>101</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" t="s">
+        <v>114</v>
+      </c>
+      <c r="D112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
         <v>104</v>
+      </c>
+      <c r="B116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
+        <v>114</v>
+      </c>
+      <c r="D116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" t="s">
+        <v>114</v>
+      </c>
+      <c r="D117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>93</v>
+      </c>
+      <c r="B118" t="s">
+        <v>93</v>
+      </c>
+      <c r="C118" t="s">
+        <v>114</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" t="s">
+        <v>114</v>
+      </c>
+      <c r="D120" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>108</v>
+      </c>
+      <c r="B122" t="s">
+        <v>108</v>
+      </c>
+      <c r="C122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>114</v>
+      </c>
+      <c r="D123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" t="s">
+        <v>109</v>
+      </c>
+      <c r="C125" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>110</v>
+      </c>
+      <c r="B126" t="s">
+        <v>110</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B129" t="s">
+        <v>111</v>
+      </c>
+      <c r="C129" t="s">
+        <v>114</v>
+      </c>
+      <c r="D129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>113</v>
+      </c>
+      <c r="B130" t="s">
+        <v>113</v>
+      </c>
+      <c r="C130" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4117,13 +4744,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="C4">
         <v>0.84</v>
       </c>
       <c r="D4">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4173,13 +4800,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="C8">
         <v>0.77</v>
       </c>
       <c r="D8">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4190,10 +4817,10 @@
         <v>0.86</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="D9">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4203,7 +4830,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4231,7 +4858,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4245,7 +4872,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4259,7 +4886,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4267,10 +4894,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -4281,13 +4908,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -4295,10 +4922,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -4332,7 +4959,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4346,7 +4973,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4357,7 +4984,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -4374,21 +5001,21 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4402,7 +5029,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4416,21 +5043,21 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4444,15 +5071,15 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -4469,7 +5096,7 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -4511,7 +5138,7 @@
         <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -4533,16 +5160,16 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4553,7 +5180,7 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -4567,7 +5194,7 @@
         <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -4581,7 +5208,7 @@
         <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -4598,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4612,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4626,7 +5253,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4640,7 +5267,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4654,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4668,7 +5295,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4682,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4696,7 +5323,7 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4710,7 +5337,7 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4724,7 +5351,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4735,7 +5362,7 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -4752,21 +5379,147 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +5551,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>0.86</v>
@@ -4812,7 +5565,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4826,16 +5579,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="C4">
         <v>0.9</v>
       </c>
       <c r="D4">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4843,13 +5596,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C5">
         <v>0.88</v>
       </c>
       <c r="D5">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4860,10 +5613,10 @@
         <v>0.89</v>
       </c>
       <c r="C6">
+        <v>0.79</v>
+      </c>
+      <c r="D6">
         <v>0.83</v>
-      </c>
-      <c r="D6">
-        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -4873,7 +5626,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4901,10 +5654,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4915,10 +5668,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4929,24 +5682,24 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4957,10 +5710,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4971,10 +5724,10 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4985,10 +5738,10 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4999,10 +5752,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5013,24 +5766,24 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5041,10 +5794,10 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5055,24 +5808,24 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5083,10 +5836,10 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5097,10 +5850,10 @@
         <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5111,10 +5864,10 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5125,10 +5878,10 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5139,24 +5892,24 @@
         <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5167,10 +5920,10 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5181,10 +5934,10 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5195,10 +5948,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -5209,10 +5962,10 @@
         <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5223,10 +5976,10 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5237,10 +5990,10 @@
         <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -5251,10 +6004,10 @@
         <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -5265,10 +6018,10 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5279,10 +6032,10 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5293,10 +6046,10 @@
         <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -5307,10 +6060,10 @@
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5321,10 +6074,10 @@
         <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -5335,10 +6088,10 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -5349,10 +6102,10 @@
         <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -5363,24 +6116,150 @@
         <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
-        <v>101</v>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/pythonProject/evaluation/classla/literature.xlsx
+++ b/pythonProject/evaluation/classla/literature.xlsx
@@ -7,21 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="standard-full-stats" sheetId="1" r:id="rId1"/>
-    <sheet name="standard-full-diffs" sheetId="2" r:id="rId2"/>
-    <sheet name="standard-base-stats" sheetId="3" r:id="rId3"/>
-    <sheet name="standard-base-diffs" sheetId="4" r:id="rId4"/>
-    <sheet name="nonstandard-full-stats" sheetId="5" r:id="rId5"/>
-    <sheet name="nonstandard-full-diffs" sheetId="6" r:id="rId6"/>
-    <sheet name="nonstandard-base-stats" sheetId="7" r:id="rId7"/>
-    <sheet name="nonstandard-base-diffs" sheetId="8" r:id="rId8"/>
+    <sheet name="standard_full-stats" sheetId="1" r:id="rId1"/>
+    <sheet name="standard_full-diffs" sheetId="2" r:id="rId2"/>
+    <sheet name="standard_base-stats" sheetId="3" r:id="rId3"/>
+    <sheet name="standard_base-diffs" sheetId="4" r:id="rId4"/>
+    <sheet name="nonstandard_full-stats" sheetId="5" r:id="rId5"/>
+    <sheet name="nonstandard_full-diffs" sheetId="6" r:id="rId6"/>
+    <sheet name="nonstandard_base-stats" sheetId="7" r:id="rId7"/>
+    <sheet name="nonstandard_base-diffs" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="121">
   <si>
     <t>Tag</t>
   </si>
@@ -119,18 +119,18 @@
     <t>Najneprijatniji</t>
   </si>
   <si>
+    <t>Šta</t>
+  </si>
+  <si>
+    <t>Je</t>
+  </si>
+  <si>
+    <t>Mesto</t>
+  </si>
+  <si>
     <t>Doli</t>
   </si>
   <si>
-    <t>Šta</t>
-  </si>
-  <si>
-    <t>Je</t>
-  </si>
-  <si>
-    <t>Mesto</t>
-  </si>
-  <si>
     <t>Otada</t>
   </si>
   <si>
@@ -203,12 +203,6 @@
     <t>Arkadijeviča</t>
   </si>
   <si>
-    <t>Stepan</t>
-  </si>
-  <si>
-    <t>Arkadijevič</t>
-  </si>
-  <si>
     <t>Dobroćudan</t>
   </si>
   <si>
@@ -257,10 +251,10 @@
     <t>partija</t>
   </si>
   <si>
+    <t>Ruriku</t>
+  </si>
+  <si>
     <t>Prvo</t>
-  </si>
-  <si>
-    <t>vlada</t>
   </si>
   <si>
     <t>Bentam</t>
@@ -772,13 +766,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C2">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="D2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -786,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="C3">
         <v>0.06</v>
@@ -803,10 +797,10 @@
         <v>0.84</v>
       </c>
       <c r="C4">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D4">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -845,10 +839,10 @@
         <v>0.98</v>
       </c>
       <c r="C7">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="D7">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -856,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C8">
         <v>0.27</v>
@@ -870,13 +864,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="C9">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="D9">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +880,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -914,7 +908,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -928,7 +922,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -942,7 +936,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -956,7 +950,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -970,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -984,7 +978,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -998,7 +992,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -1012,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1026,7 +1020,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1068,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -1082,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -1096,7 +1090,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -1110,7 +1104,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -1124,7 +1118,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -1138,7 +1132,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -1152,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1166,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1180,7 +1174,7 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -1194,7 +1188,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -1208,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -1222,10 +1216,10 @@
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1236,7 +1230,7 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1250,7 +1244,7 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -1264,7 +1258,7 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1278,7 +1272,7 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1292,7 +1286,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1320,7 +1314,7 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -1334,7 +1328,7 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -1348,7 +1342,7 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -1362,7 +1356,7 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1390,7 +1384,7 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -1418,7 +1412,7 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -1432,7 +1426,7 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1446,7 +1440,7 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1460,7 +1454,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1474,7 +1468,7 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1502,7 +1496,7 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -1516,7 +1510,7 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1544,7 +1538,7 @@
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1558,7 +1552,7 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -1566,13 +1560,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -1580,13 +1574,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -1594,83 +1588,83 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -1678,13 +1672,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -1692,41 +1686,41 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -1740,35 +1734,35 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -1776,13 +1770,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -1796,35 +1790,35 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>6</v>
@@ -1832,13 +1826,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
         <v>6</v>
@@ -1846,27 +1840,27 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D70" t="s">
         <v>6</v>
@@ -1874,86 +1868,86 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1964,49 +1958,49 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -2014,24 +2008,24 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -2042,55 +2036,55 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
         <v>4</v>
@@ -2098,97 +2092,97 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -2196,13 +2190,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2210,13 +2204,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B95" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
@@ -2224,69 +2218,69 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
@@ -2294,69 +2288,69 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D104" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
@@ -2364,16 +2358,16 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2384,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
@@ -2392,13 +2386,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -2406,69 +2400,69 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
@@ -2476,83 +2470,83 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B119" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2560,69 +2554,69 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="B120" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2630,13 +2624,13 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D125" t="s">
         <v>6</v>
@@ -2644,27 +2638,27 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="C126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="C127" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2672,85 +2666,15 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B128" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C128" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" t="s">
-        <v>110</v>
-      </c>
-      <c r="C129" t="s">
-        <v>114</v>
-      </c>
-      <c r="D129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>111</v>
-      </c>
-      <c r="B130" t="s">
-        <v>111</v>
-      </c>
-      <c r="C130" t="s">
-        <v>114</v>
-      </c>
-      <c r="D130" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>112</v>
-      </c>
-      <c r="B131" t="s">
-        <v>112</v>
-      </c>
-      <c r="C131" t="s">
-        <v>114</v>
-      </c>
-      <c r="D131" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>111</v>
-      </c>
-      <c r="B132" t="s">
-        <v>111</v>
-      </c>
-      <c r="C132" t="s">
-        <v>114</v>
-      </c>
-      <c r="D132" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>113</v>
-      </c>
-      <c r="B133" t="s">
-        <v>113</v>
-      </c>
-      <c r="C133" t="s">
-        <v>114</v>
-      </c>
-      <c r="D133" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2783,24 +2707,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="D2">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -2811,16 +2735,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="C4">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="D4">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2828,13 +2752,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="C5">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="D5">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2842,13 +2766,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="C6">
         <v>0.87</v>
       </c>
       <c r="D6">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>
@@ -2858,7 +2782,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2886,10 +2810,10 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2900,10 +2824,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2914,10 +2838,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2928,10 +2852,10 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2942,10 +2866,10 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2956,10 +2880,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2970,10 +2894,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2984,10 +2908,10 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2998,10 +2922,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3012,10 +2936,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3026,10 +2950,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3040,10 +2964,10 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3054,10 +2978,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3068,10 +2992,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3082,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
         <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3096,10 +3020,10 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
         <v>114</v>
-      </c>
-      <c r="D17" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3110,10 +3034,10 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" t="s">
         <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3124,10 +3048,10 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3138,10 +3062,10 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3152,10 +3076,10 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3166,10 +3090,10 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3180,10 +3104,10 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3194,10 +3118,10 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3208,10 +3132,10 @@
         <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3222,10 +3146,10 @@
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3236,10 +3160,10 @@
         <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3250,10 +3174,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3264,10 +3188,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3278,10 +3202,10 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" t="s">
         <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3292,10 +3216,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3306,10 +3230,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" t="s">
         <v>114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3320,10 +3244,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
         <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3334,10 +3258,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3348,10 +3272,10 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3362,10 +3286,10 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3376,10 +3300,10 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3390,10 +3314,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3404,10 +3328,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3418,10 +3342,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3432,10 +3356,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3446,10 +3370,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3460,10 +3384,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3474,10 +3398,10 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3488,10 +3412,10 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
         <v>114</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3502,77 +3426,77 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
         <v>115</v>
@@ -3580,16 +3504,16 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
         <v>114</v>
-      </c>
-      <c r="D52" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3600,133 +3524,133 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" t="s">
         <v>114</v>
-      </c>
-      <c r="D53" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
         <v>114</v>
-      </c>
-      <c r="D60" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D62" t="s">
         <v>115</v>
@@ -3734,114 +3658,114 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
         <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
         <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3855,105 +3779,105 @@
         <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3964,7 +3888,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D79" t="s">
         <v>115</v>
@@ -3978,24 +3902,24 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4006,10 +3930,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4020,52 +3944,52 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
         <v>114</v>
-      </c>
-      <c r="D85" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4076,7 +4000,7 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87" t="s">
         <v>115</v>
@@ -4090,80 +4014,80 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4174,10 +4098,10 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
         <v>114</v>
-      </c>
-      <c r="D94" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4188,91 +4112,91 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
         <v>114</v>
-      </c>
-      <c r="D95" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" t="s">
         <v>114</v>
-      </c>
-      <c r="D96" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D101" t="s">
         <v>115</v>
@@ -4280,16 +4204,16 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" t="s">
         <v>114</v>
-      </c>
-      <c r="D102" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4300,122 +4224,122 @@
         <v>97</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="C110" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4426,7 +4350,7 @@
         <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D112" t="s">
         <v>115</v>
@@ -4434,13 +4358,13 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D113" t="s">
         <v>115</v>
@@ -4448,30 +4372,30 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B114" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s">
+        <v>112</v>
+      </c>
+      <c r="D114" t="s">
         <v>114</v>
-      </c>
-      <c r="D114" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C115" t="s">
+        <v>112</v>
+      </c>
+      <c r="D115" t="s">
         <v>114</v>
-      </c>
-      <c r="D115" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4482,66 +4406,66 @@
         <v>104</v>
       </c>
       <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116" t="s">
         <v>114</v>
-      </c>
-      <c r="D116" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B118" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4552,10 +4476,10 @@
         <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D121" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4566,38 +4490,38 @@
         <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D123" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D124" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4608,80 +4532,24 @@
         <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D125" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C126" t="s">
+        <v>112</v>
+      </c>
+      <c r="D126" t="s">
         <v>114</v>
-      </c>
-      <c r="D126" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>111</v>
-      </c>
-      <c r="B127" t="s">
-        <v>111</v>
-      </c>
-      <c r="C127" t="s">
-        <v>114</v>
-      </c>
-      <c r="D127" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>112</v>
-      </c>
-      <c r="B128" t="s">
-        <v>112</v>
-      </c>
-      <c r="C128" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" t="s">
-        <v>111</v>
-      </c>
-      <c r="C129" t="s">
-        <v>114</v>
-      </c>
-      <c r="D129" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>113</v>
-      </c>
-      <c r="B130" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" t="s">
-        <v>114</v>
-      </c>
-      <c r="D130" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4716,13 +4584,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C2">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="D2">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4744,13 +4612,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="D4">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4786,13 +4654,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="D7">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4803,7 +4671,7 @@
         <v>0.58</v>
       </c>
       <c r="C8">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="D8">
         <v>0.42</v>
@@ -4814,13 +4682,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="C9">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="D9">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4698,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4858,7 +4726,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4872,7 +4740,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -4886,7 +4754,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -4894,10 +4762,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -4908,13 +4776,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -4922,10 +4790,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -4959,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4973,21 +4841,21 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5001,21 +4869,21 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5029,7 +4897,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5043,21 +4911,21 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5071,15 +4939,15 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
@@ -5090,55 +4958,55 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -5146,30 +5014,30 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -5180,94 +5048,94 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -5278,248 +5146,178 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5551,21 +5349,21 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -5579,16 +5377,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>0.82</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5596,13 +5394,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="C5">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="D5">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5610,13 +5408,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
         <v>0.79</v>
       </c>
       <c r="D6">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -5626,7 +5424,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5654,10 +5452,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5668,10 +5466,10 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5682,24 +5480,24 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5710,10 +5508,10 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5724,10 +5522,10 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5738,24 +5536,24 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5766,24 +5564,24 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -5794,10 +5592,10 @@
         <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5808,24 +5606,24 @@
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5836,430 +5634,374 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
